--- a/SeleniumBasicsNew/src/main/resources/TestData.xlsx
+++ b/SeleniumBasicsNew/src/main/resources/TestData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91756\eclipse-workspace\SeleniumBasicsNew\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91756\git\SeleniumBasicsNew\SeleniumBasicsNew\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBD6A8E-E9DE-4DEA-9DD8-48188457D0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A84129-3F12-43D0-BBD1-8A458E16D916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5328" yWindow="2076" windowWidth="17604" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="3360" windowWidth="17604" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePageData" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPageData" sheetId="2" r:id="rId2"/>
-    <sheet name="RegistrationPageData" sheetId="3" r:id="rId3"/>
+    <sheet name="RegisterPageData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,22 +27,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Demo Web Shop</t>
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Login</t>
+  </si>
+  <si>
+    <t>santhosh678@gmail.com</t>
+  </si>
+  <si>
+    <t>SANt%123</t>
+  </si>
+  <si>
+    <t>sanamshan123@gmail.com</t>
+  </si>
+  <si>
+    <t>Login was unsuccessful. Please correct the errors and try again.</t>
+  </si>
+  <si>
+    <t>sanam$7</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Register</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>shangeotom786@gmail.com</t>
+  </si>
+  <si>
+    <t>EASTER%egg4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,13 +109,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -361,12 +408,15 @@
     <col min="1" max="1" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -376,24 +426,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043CFBC0-ED71-4FEC-89B9-8F3631A00668}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="58.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{E813561A-DB8A-4339-B05E-29C08186743B}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{397ABE05-9027-4F06-B71F-DC70225285F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452BB6A3-88DA-404D-B2E2-B2AF20AA7048}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{6DC6B4B8-07F2-4D51-8EB4-7601BDF9F9BE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>